--- a/modules_schedules/Y1_B2425_Introduction_to_Histology_schedule.xlsx
+++ b/modules_schedules/Y1_B2425_Introduction_to_Histology_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\automation\Attendance manager\faculty app - html schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\automation\Attendance manager\faculty automation script\modules_schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6391DD83-287E-4060-9B53-2543CE526FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE65E58-9BFE-49CF-9DBE-9C35516DAC00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="10980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3040" yWindow="1300" windowWidth="18280" windowHeight="13100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Histology_schedule" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="95">
   <si>
     <t>Year</t>
   </si>
@@ -310,6 +310,15 @@
   </si>
   <si>
     <t>EMP</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>PED-B2-1</t>
   </si>
 </sst>
 </file>
@@ -713,11 +722,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F189"/>
+  <dimension ref="A1:G283"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -725,10 +734,11 @@
     <col min="3" max="3" width="13.7265625" customWidth="1"/>
     <col min="4" max="4" width="12.453125" style="9" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="5"/>
+    <col min="6" max="6" width="11.08984375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -747,8 +757,11 @@
       <c r="F1" s="4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -767,8 +780,11 @@
       <c r="F2" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -787,8 +803,11 @@
       <c r="F3" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -807,8 +826,11 @@
       <c r="F4" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -827,8 +849,11 @@
       <c r="F5" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -847,8 +872,11 @@
       <c r="F6" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -867,8 +895,11 @@
       <c r="F7" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -887,8 +918,11 @@
       <c r="F8" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -907,8 +941,11 @@
       <c r="F9" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -927,8 +964,11 @@
       <c r="F10" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -947,8 +987,11 @@
       <c r="F11" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -967,8 +1010,11 @@
       <c r="F12" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G12">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -987,8 +1033,11 @@
       <c r="F13" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -1007,8 +1056,11 @@
       <c r="F14" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G14">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1027,8 +1079,11 @@
       <c r="F15" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G15">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1047,8 +1102,11 @@
       <c r="F16" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G16">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1067,8 +1125,11 @@
       <c r="F17" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G17">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1087,8 +1148,11 @@
       <c r="F18" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G18">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -1107,8 +1171,11 @@
       <c r="F19" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G19">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -1127,8 +1194,11 @@
       <c r="F20" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G20">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -1147,8 +1217,11 @@
       <c r="F21" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G21">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -1167,8 +1240,11 @@
       <c r="F22" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G22">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -1187,8 +1263,11 @@
       <c r="F23" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G23">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -1207,8 +1286,11 @@
       <c r="F24" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G24">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -1227,8 +1309,11 @@
       <c r="F25" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -1247,8 +1332,11 @@
       <c r="F26" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G26">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -1267,8 +1355,11 @@
       <c r="F27" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G27">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -1287,8 +1378,11 @@
       <c r="F28" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G28">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -1307,8 +1401,11 @@
       <c r="F29" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G29">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -1327,8 +1424,11 @@
       <c r="F30" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G30">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -1347,8 +1447,11 @@
       <c r="F31" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G31">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -1367,8 +1470,11 @@
       <c r="F32" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G32">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -1387,8 +1493,11 @@
       <c r="F33" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G33">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -1407,8 +1516,11 @@
       <c r="F34" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G34">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -1427,8 +1539,11 @@
       <c r="F35" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -1447,8 +1562,11 @@
       <c r="F36" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G36">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>2</v>
       </c>
@@ -1467,8 +1585,11 @@
       <c r="F37" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G37">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -1487,8 +1608,11 @@
       <c r="F38" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G38">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -1507,8 +1631,11 @@
       <c r="F39" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G39">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -1527,8 +1654,11 @@
       <c r="F40" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G40">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>2</v>
       </c>
@@ -1547,8 +1677,11 @@
       <c r="F41" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G41">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>2</v>
       </c>
@@ -1567,8 +1700,11 @@
       <c r="F42" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G42">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -1587,8 +1723,11 @@
       <c r="F43" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G43">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -1607,8 +1746,11 @@
       <c r="F44" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G44">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>2</v>
       </c>
@@ -1627,8 +1769,11 @@
       <c r="F45" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G45">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -1647,8 +1792,11 @@
       <c r="F46" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G46">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>2</v>
       </c>
@@ -1667,8 +1815,11 @@
       <c r="F47" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G47">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>2</v>
       </c>
@@ -1687,8 +1838,11 @@
       <c r="F48" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G48">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="52" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -1707,8 +1861,11 @@
       <c r="F49" s="5">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G49">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>2</v>
       </c>
@@ -1727,8 +1884,11 @@
       <c r="F50" s="5">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G50">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>2</v>
       </c>
@@ -1747,8 +1907,11 @@
       <c r="F51" s="5">
         <v>0.41666666666666702</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G51">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>2</v>
       </c>
@@ -1767,8 +1930,11 @@
       <c r="F52" s="5">
         <v>0.45833333333333298</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G52">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>2</v>
       </c>
@@ -1787,8 +1953,11 @@
       <c r="F53" s="5">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G53">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>2</v>
       </c>
@@ -1807,8 +1976,11 @@
       <c r="F54" s="5">
         <v>0.54166666666666696</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G54">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>2</v>
       </c>
@@ -1827,8 +1999,11 @@
       <c r="F55" s="5">
         <v>0.58333333333333304</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G55">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>2</v>
       </c>
@@ -1847,8 +2022,11 @@
       <c r="F56" s="5">
         <v>0.625</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G56">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>2</v>
       </c>
@@ -1867,8 +2045,11 @@
       <c r="F57" s="5">
         <v>0.66666666666666696</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G57">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>2</v>
       </c>
@@ -1887,8 +2068,11 @@
       <c r="F58" s="5">
         <v>0.70833333333333304</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G58">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>2</v>
       </c>
@@ -1907,8 +2091,11 @@
       <c r="F59" s="5">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G59">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>2</v>
       </c>
@@ -1927,8 +2114,11 @@
       <c r="F60" s="5">
         <v>0.79166666666666696</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G60">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>2</v>
       </c>
@@ -1947,8 +2137,11 @@
       <c r="F61" s="5">
         <v>0.83333333333333304</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G61">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>2</v>
       </c>
@@ -1967,8 +2160,11 @@
       <c r="F62" s="5">
         <v>0.875</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G62">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>2</v>
       </c>
@@ -1987,8 +2183,11 @@
       <c r="F63" s="5">
         <v>0.91666666666666696</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G63">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>2</v>
       </c>
@@ -2007,8 +2206,11 @@
       <c r="F64" s="5">
         <v>0.95833333333333304</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G64">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>2</v>
       </c>
@@ -2027,8 +2229,11 @@
       <c r="F65" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G65">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>2</v>
       </c>
@@ -2047,8 +2252,11 @@
       <c r="F66" s="5">
         <v>1.0416666666666701</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G66">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -2067,8 +2275,11 @@
       <c r="F67" s="5">
         <v>1.0833333333333299</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G67">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>2</v>
       </c>
@@ -2087,8 +2298,11 @@
       <c r="F68" s="5">
         <v>1.125</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G68">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>2</v>
       </c>
@@ -2107,8 +2321,11 @@
       <c r="F69" s="5">
         <v>1.1666666666666701</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G69">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>2</v>
       </c>
@@ -2127,8 +2344,11 @@
       <c r="F70" s="5">
         <v>1.2083333333333299</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G70">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>2</v>
       </c>
@@ -2147,8 +2367,11 @@
       <c r="F71" s="5">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G71">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>2</v>
       </c>
@@ -2167,8 +2390,11 @@
       <c r="F72" s="5">
         <v>1.2916666666666701</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G72">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>2</v>
       </c>
@@ -2187,8 +2413,11 @@
       <c r="F73" s="5">
         <v>1.3333333333333299</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G73">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>2</v>
       </c>
@@ -2207,8 +2436,11 @@
       <c r="F74" s="5">
         <v>1.375</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G74">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>2</v>
       </c>
@@ -2227,8 +2459,11 @@
       <c r="F75" s="5">
         <v>1.4166666666666601</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G75">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>2</v>
       </c>
@@ -2247,8 +2482,11 @@
       <c r="F76" s="5">
         <v>1.4583333333333299</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G76">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>2</v>
       </c>
@@ -2267,8 +2505,11 @@
       <c r="F77" s="5">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G77">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>2</v>
       </c>
@@ -2287,8 +2528,11 @@
       <c r="F78" s="5">
         <v>1.5416666666666601</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G78">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>2</v>
       </c>
@@ -2307,8 +2551,11 @@
       <c r="F79" s="5">
         <v>1.5833333333333299</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G79">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>2</v>
       </c>
@@ -2327,8 +2574,11 @@
       <c r="F80" s="5">
         <v>1.625</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G80">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>2</v>
       </c>
@@ -2347,8 +2597,11 @@
       <c r="F81" s="5">
         <v>1.6666666666666601</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G81">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>2</v>
       </c>
@@ -2367,8 +2620,11 @@
       <c r="F82" s="5">
         <v>1.7083333333333299</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G82">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>2</v>
       </c>
@@ -2387,8 +2643,11 @@
       <c r="F83" s="5">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G83">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>2</v>
       </c>
@@ -2407,8 +2666,11 @@
       <c r="F84" s="5">
         <v>1.7916666666666601</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G84">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>2</v>
       </c>
@@ -2427,8 +2689,11 @@
       <c r="F85" s="5">
         <v>1.8333333333333299</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G85">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>2</v>
       </c>
@@ -2447,8 +2712,11 @@
       <c r="F86" s="5">
         <v>1.875</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G86">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>2</v>
       </c>
@@ -2467,8 +2735,11 @@
       <c r="F87" s="5">
         <v>1.9166666666666601</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G87">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>2</v>
       </c>
@@ -2487,8 +2758,11 @@
       <c r="F88" s="5">
         <v>1.9583333333333299</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G88">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>2</v>
       </c>
@@ -2507,8 +2781,11 @@
       <c r="F89" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G89">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>2</v>
       </c>
@@ -2527,8 +2804,11 @@
       <c r="F90" s="5">
         <v>2.0416666666666599</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G90">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>2</v>
       </c>
@@ -2547,8 +2827,11 @@
       <c r="F91" s="5">
         <v>2.0833333333333299</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G91">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>2</v>
       </c>
@@ -2567,8 +2850,11 @@
       <c r="F92" s="5">
         <v>2.125</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G92">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>2</v>
       </c>
@@ -2587,8 +2873,11 @@
       <c r="F93" s="5">
         <v>2.1666666666666599</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G93">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>2</v>
       </c>
@@ -2607,8 +2896,11 @@
       <c r="F94" s="5">
         <v>2.2083333333333299</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G94">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>2</v>
       </c>
@@ -2627,8 +2919,11 @@
       <c r="F95" s="5">
         <v>2.25</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G95">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="52" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>2</v>
       </c>
@@ -2647,8 +2942,11 @@
       <c r="F96" s="5">
         <v>2.0416666666666599</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G96">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>2</v>
       </c>
@@ -2667,8 +2965,11 @@
       <c r="F97" s="5">
         <v>2.0833333333333299</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G97">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>2</v>
       </c>
@@ -2687,8 +2988,11 @@
       <c r="F98" s="5">
         <v>2.1249999999999898</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G98">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>2</v>
       </c>
@@ -2707,8 +3011,11 @@
       <c r="F99" s="5">
         <v>2.1666666666666599</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G99">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>2</v>
       </c>
@@ -2727,8 +3034,11 @@
       <c r="F100" s="5">
         <v>2.2083333333333299</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G100">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>2</v>
       </c>
@@ -2747,8 +3057,11 @@
       <c r="F101" s="5">
         <v>2.2499999999999898</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G101">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>2</v>
       </c>
@@ -2767,8 +3080,11 @@
       <c r="F102" s="5">
         <v>2.2916666666666599</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G102">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>2</v>
       </c>
@@ -2787,8 +3103,11 @@
       <c r="F103" s="5">
         <v>2.3333333333333299</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G103">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>2</v>
       </c>
@@ -2807,8 +3126,11 @@
       <c r="F104" s="5">
         <v>2.3749999999999898</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G104">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>2</v>
       </c>
@@ -2827,8 +3149,11 @@
       <c r="F105" s="5">
         <v>2.4166666666666599</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G105">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>2</v>
       </c>
@@ -2847,8 +3172,11 @@
       <c r="F106" s="5">
         <v>2.4583333333333299</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G106">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>2</v>
       </c>
@@ -2867,8 +3195,11 @@
       <c r="F107" s="5">
         <v>2.4999999999999898</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G107">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>2</v>
       </c>
@@ -2887,8 +3218,11 @@
       <c r="F108" s="5">
         <v>2.5416666666666599</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G108">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>2</v>
       </c>
@@ -2907,8 +3241,11 @@
       <c r="F109" s="5">
         <v>2.5833333333333299</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G109">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>2</v>
       </c>
@@ -2927,8 +3264,11 @@
       <c r="F110" s="5">
         <v>2.6249999999999898</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G110">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>2</v>
       </c>
@@ -2947,8 +3287,11 @@
       <c r="F111" s="5">
         <v>2.6666666666666599</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G111">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>2</v>
       </c>
@@ -2967,8 +3310,11 @@
       <c r="F112" s="5">
         <v>2.7083333333333299</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G112">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>2</v>
       </c>
@@ -2987,8 +3333,11 @@
       <c r="F113" s="5">
         <v>2.7499999999999898</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G113">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>2</v>
       </c>
@@ -3007,8 +3356,11 @@
       <c r="F114" s="5">
         <v>2.7916666666666599</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G114">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>2</v>
       </c>
@@ -3027,8 +3379,11 @@
       <c r="F115" s="5">
         <v>2.8333333333333299</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G115">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>2</v>
       </c>
@@ -3047,8 +3402,11 @@
       <c r="F116" s="5">
         <v>2.8749999999999898</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G116">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>2</v>
       </c>
@@ -3067,8 +3425,11 @@
       <c r="F117" s="5">
         <v>2.9166666666666599</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G117">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>2</v>
       </c>
@@ -3087,8 +3448,11 @@
       <c r="F118" s="5">
         <v>2.9583333333333299</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G118">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>2</v>
       </c>
@@ -3107,8 +3471,11 @@
       <c r="F119" s="5">
         <v>2.9999999999999898</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G119">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>2</v>
       </c>
@@ -3127,8 +3494,11 @@
       <c r="F120" s="5">
         <v>3.0416666666666599</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G120">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>2</v>
       </c>
@@ -3147,8 +3517,11 @@
       <c r="F121" s="5">
         <v>3.0833333333333299</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G121">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>2</v>
       </c>
@@ -3167,8 +3540,11 @@
       <c r="F122" s="5">
         <v>3.1249999999999898</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G122">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>2</v>
       </c>
@@ -3187,8 +3563,11 @@
       <c r="F123" s="5">
         <v>3.1666666666666599</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G123">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>2</v>
       </c>
@@ -3207,8 +3586,11 @@
       <c r="F124" s="5">
         <v>3.2083333333333299</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G124">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>2</v>
       </c>
@@ -3227,8 +3609,11 @@
       <c r="F125" s="5">
         <v>3.2499999999999898</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G125">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>2</v>
       </c>
@@ -3247,8 +3632,11 @@
       <c r="F126" s="5">
         <v>3.2916666666666599</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G126">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>2</v>
       </c>
@@ -3267,8 +3655,11 @@
       <c r="F127" s="5">
         <v>3.3333333333333299</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G127">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>2</v>
       </c>
@@ -3287,8 +3678,11 @@
       <c r="F128" s="5">
         <v>3.3749999999999898</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G128">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>2</v>
       </c>
@@ -3307,8 +3701,11 @@
       <c r="F129" s="5">
         <v>3.4166666666666599</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G129">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>2</v>
       </c>
@@ -3327,8 +3724,11 @@
       <c r="F130" s="5">
         <v>3.4583333333333299</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G130">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>2</v>
       </c>
@@ -3347,8 +3747,11 @@
       <c r="F131" s="5">
         <v>3.4999999999999898</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G131">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>2</v>
       </c>
@@ -3367,8 +3770,11 @@
       <c r="F132" s="5">
         <v>3.5416666666666599</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G132">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>2</v>
       </c>
@@ -3387,8 +3793,11 @@
       <c r="F133" s="5">
         <v>3.5833333333333299</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G133">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>2</v>
       </c>
@@ -3407,8 +3816,11 @@
       <c r="F134" s="5">
         <v>3.6249999999999898</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G134">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>2</v>
       </c>
@@ -3427,8 +3839,11 @@
       <c r="F135" s="5">
         <v>3.6666666666666599</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G135">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>2</v>
       </c>
@@ -3447,8 +3862,11 @@
       <c r="F136" s="5">
         <v>3.7083333333333299</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G136">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>2</v>
       </c>
@@ -3467,8 +3885,11 @@
       <c r="F137" s="5">
         <v>3.7499999999999898</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G137">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>2</v>
       </c>
@@ -3487,8 +3908,11 @@
       <c r="F138" s="5">
         <v>3.7916666666666599</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G138">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>2</v>
       </c>
@@ -3507,8 +3931,11 @@
       <c r="F139" s="5">
         <v>3.8333333333333299</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G139">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>2</v>
       </c>
@@ -3527,8 +3954,11 @@
       <c r="F140" s="5">
         <v>3.8749999999999898</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G140">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>2</v>
       </c>
@@ -3547,8 +3977,11 @@
       <c r="F141" s="5">
         <v>3.9166666666666599</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G141">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>2</v>
       </c>
@@ -3567,8 +4000,11 @@
       <c r="F142" s="5">
         <v>3.9583333333333299</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G142">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>2</v>
       </c>
@@ -3587,8 +4023,11 @@
       <c r="F143" s="11">
         <v>4.1666666666666664E-2</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G143">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>2</v>
       </c>
@@ -3607,8 +4046,11 @@
       <c r="F144" s="11">
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G144">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>2</v>
       </c>
@@ -3627,8 +4069,11 @@
       <c r="F145" s="11">
         <v>0.125</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G145">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>2</v>
       </c>
@@ -3647,8 +4092,11 @@
       <c r="F146" s="11">
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G146">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>2</v>
       </c>
@@ -3667,8 +4115,11 @@
       <c r="F147" s="11">
         <v>0.20833333333333334</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G147">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>2</v>
       </c>
@@ -3687,8 +4138,11 @@
       <c r="F148" s="11">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G148">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>2</v>
       </c>
@@ -3707,8 +4161,11 @@
       <c r="F149" s="11">
         <v>0.29166666666666669</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G149">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>2</v>
       </c>
@@ -3727,8 +4184,11 @@
       <c r="F150" s="11">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G150">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>2</v>
       </c>
@@ -3747,8 +4207,11 @@
       <c r="F151" s="11">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G151">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>2</v>
       </c>
@@ -3767,8 +4230,11 @@
       <c r="F152" s="11">
         <v>0.41666666666666669</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G152">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>2</v>
       </c>
@@ -3787,8 +4253,11 @@
       <c r="F153" s="11">
         <v>0.45833333333333331</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G153">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>2</v>
       </c>
@@ -3807,8 +4276,11 @@
       <c r="F154" s="11">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G154">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>2</v>
       </c>
@@ -3827,8 +4299,11 @@
       <c r="F155" s="11">
         <v>0.54166666666666663</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G155">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>2</v>
       </c>
@@ -3847,8 +4322,11 @@
       <c r="F156" s="11">
         <v>0.58333333333333337</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G156">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>2</v>
       </c>
@@ -3867,8 +4345,11 @@
       <c r="F157" s="11">
         <v>0.625</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G157">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>2</v>
       </c>
@@ -3887,8 +4368,11 @@
       <c r="F158" s="11">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G158">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>2</v>
       </c>
@@ -3907,8 +4391,11 @@
       <c r="F159" s="11">
         <v>0.70833333333333337</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G159">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>2</v>
       </c>
@@ -3927,8 +4414,11 @@
       <c r="F160" s="11">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G160">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>2</v>
       </c>
@@ -3947,8 +4437,11 @@
       <c r="F161" s="11">
         <v>0.79166666666666663</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G161">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>2</v>
       </c>
@@ -3967,8 +4460,11 @@
       <c r="F162" s="11">
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G162">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>2</v>
       </c>
@@ -3987,8 +4483,11 @@
       <c r="F163" s="11">
         <v>0.875</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G163">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>2</v>
       </c>
@@ -4007,8 +4506,11 @@
       <c r="F164" s="11">
         <v>0.91666666666666663</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G164">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>2</v>
       </c>
@@ -4027,8 +4529,11 @@
       <c r="F165" s="11">
         <v>0.95833333333333337</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G165">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>2</v>
       </c>
@@ -4047,8 +4552,11 @@
       <c r="F166" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G166">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>2</v>
       </c>
@@ -4067,8 +4575,11 @@
       <c r="F167" s="11">
         <v>4.1666666666666664E-2</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G167">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>2</v>
       </c>
@@ -4087,8 +4598,11 @@
       <c r="F168" s="11">
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G168">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>2</v>
       </c>
@@ -4107,8 +4621,11 @@
       <c r="F169" s="11">
         <v>0.125</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G169">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>2</v>
       </c>
@@ -4127,8 +4644,11 @@
       <c r="F170" s="11">
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G170">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>2</v>
       </c>
@@ -4147,8 +4667,11 @@
       <c r="F171" s="11">
         <v>0.20833333333333334</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G171">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>2</v>
       </c>
@@ -4167,8 +4690,11 @@
       <c r="F172" s="11">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G172">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>2</v>
       </c>
@@ -4187,8 +4713,11 @@
       <c r="F173" s="11">
         <v>0.29166666666666669</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G173">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>2</v>
       </c>
@@ -4207,8 +4736,11 @@
       <c r="F174" s="11">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G174">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>2</v>
       </c>
@@ -4227,8 +4759,11 @@
       <c r="F175" s="11">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G175">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>2</v>
       </c>
@@ -4247,8 +4782,11 @@
       <c r="F176" s="11">
         <v>0.41666666666666669</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G176">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>2</v>
       </c>
@@ -4267,8 +4805,11 @@
       <c r="F177" s="11">
         <v>0.45833333333333331</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G177">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>2</v>
       </c>
@@ -4287,8 +4828,11 @@
       <c r="F178" s="11">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G178">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>2</v>
       </c>
@@ -4307,8 +4851,11 @@
       <c r="F179" s="11">
         <v>0.54166666666666663</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G179">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>2</v>
       </c>
@@ -4327,8 +4874,11 @@
       <c r="F180" s="11">
         <v>0.58333333333333337</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G180">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>2</v>
       </c>
@@ -4347,8 +4897,11 @@
       <c r="F181" s="11">
         <v>0.625</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G181">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>2</v>
       </c>
@@ -4367,8 +4920,11 @@
       <c r="F182" s="11">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G182">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>2</v>
       </c>
@@ -4387,8 +4943,11 @@
       <c r="F183" s="11">
         <v>0.70833333333333337</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G183">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>2</v>
       </c>
@@ -4407,8 +4966,11 @@
       <c r="F184" s="11">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G184">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>2</v>
       </c>
@@ -4427,8 +4989,11 @@
       <c r="F185" s="11">
         <v>0.79166666666666663</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G185">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>2</v>
       </c>
@@ -4447,8 +5012,11 @@
       <c r="F186" s="11">
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G186">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>2</v>
       </c>
@@ -4467,8 +5035,11 @@
       <c r="F187" s="11">
         <v>0.875</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G187">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>2</v>
       </c>
@@ -4487,8 +5058,11 @@
       <c r="F188" s="11">
         <v>0.91666666666666663</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G188">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>2</v>
       </c>
@@ -4506,6 +5080,2171 @@
       </c>
       <c r="F189" s="11">
         <v>0.95833333333333337</v>
+      </c>
+      <c r="G189">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>2</v>
+      </c>
+      <c r="B190" t="s">
+        <v>93</v>
+      </c>
+      <c r="C190" t="s">
+        <v>34</v>
+      </c>
+      <c r="D190" s="9">
+        <v>1</v>
+      </c>
+      <c r="E190" s="7">
+        <v>45778</v>
+      </c>
+      <c r="F190" s="5">
+        <v>2.0416666666666665</v>
+      </c>
+      <c r="G190">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>2</v>
+      </c>
+      <c r="B191" t="s">
+        <v>93</v>
+      </c>
+      <c r="C191" t="s">
+        <v>34</v>
+      </c>
+      <c r="D191" s="9">
+        <v>2</v>
+      </c>
+      <c r="E191" s="7">
+        <v>45779</v>
+      </c>
+      <c r="F191" s="5">
+        <v>2.0416666666666665</v>
+      </c>
+      <c r="G191">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>2</v>
+      </c>
+      <c r="B192" t="s">
+        <v>93</v>
+      </c>
+      <c r="C192" t="s">
+        <v>34</v>
+      </c>
+      <c r="D192" s="9">
+        <v>3</v>
+      </c>
+      <c r="E192" s="7">
+        <v>45780</v>
+      </c>
+      <c r="F192" s="5">
+        <v>2.0416666666666665</v>
+      </c>
+      <c r="G192">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>2</v>
+      </c>
+      <c r="B193" t="s">
+        <v>93</v>
+      </c>
+      <c r="C193" t="s">
+        <v>34</v>
+      </c>
+      <c r="D193" s="9">
+        <v>4</v>
+      </c>
+      <c r="E193" s="7">
+        <v>45781</v>
+      </c>
+      <c r="F193" s="5">
+        <v>2.0416666666666701</v>
+      </c>
+      <c r="G193">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>2</v>
+      </c>
+      <c r="B194" t="s">
+        <v>93</v>
+      </c>
+      <c r="C194" t="s">
+        <v>34</v>
+      </c>
+      <c r="D194" s="9">
+        <v>5</v>
+      </c>
+      <c r="E194" s="7">
+        <v>45782</v>
+      </c>
+      <c r="F194" s="5">
+        <v>2.0416666666666701</v>
+      </c>
+      <c r="G194">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>2</v>
+      </c>
+      <c r="B195" t="s">
+        <v>93</v>
+      </c>
+      <c r="C195" t="s">
+        <v>34</v>
+      </c>
+      <c r="D195" s="9">
+        <v>6</v>
+      </c>
+      <c r="E195" s="7">
+        <v>45783</v>
+      </c>
+      <c r="F195" s="5">
+        <v>2.0416666666666701</v>
+      </c>
+      <c r="G195">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>2</v>
+      </c>
+      <c r="B196" t="s">
+        <v>93</v>
+      </c>
+      <c r="C196" t="s">
+        <v>34</v>
+      </c>
+      <c r="D196" s="9">
+        <v>7</v>
+      </c>
+      <c r="E196" s="7">
+        <v>45784</v>
+      </c>
+      <c r="F196" s="5">
+        <v>2.0416666666666701</v>
+      </c>
+      <c r="G196">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>2</v>
+      </c>
+      <c r="B197" t="s">
+        <v>93</v>
+      </c>
+      <c r="C197" t="s">
+        <v>34</v>
+      </c>
+      <c r="D197" s="9">
+        <v>8</v>
+      </c>
+      <c r="E197" s="7">
+        <v>45785</v>
+      </c>
+      <c r="F197" s="5">
+        <v>2.0416666666666701</v>
+      </c>
+      <c r="G197">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>2</v>
+      </c>
+      <c r="B198" t="s">
+        <v>93</v>
+      </c>
+      <c r="C198" t="s">
+        <v>34</v>
+      </c>
+      <c r="D198" s="9">
+        <v>9</v>
+      </c>
+      <c r="E198" s="7">
+        <v>45786</v>
+      </c>
+      <c r="F198" s="5">
+        <v>2.0416666666666701</v>
+      </c>
+      <c r="G198">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>2</v>
+      </c>
+      <c r="B199" t="s">
+        <v>93</v>
+      </c>
+      <c r="C199" t="s">
+        <v>34</v>
+      </c>
+      <c r="D199" s="9">
+        <v>10</v>
+      </c>
+      <c r="E199" s="7">
+        <v>45787</v>
+      </c>
+      <c r="F199" s="5">
+        <v>2.0416666666666701</v>
+      </c>
+      <c r="G199">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>2</v>
+      </c>
+      <c r="B200" t="s">
+        <v>93</v>
+      </c>
+      <c r="C200" t="s">
+        <v>26</v>
+      </c>
+      <c r="D200" s="9">
+        <v>1</v>
+      </c>
+      <c r="E200" s="7">
+        <v>45788</v>
+      </c>
+      <c r="F200" s="5">
+        <v>2.4583333333333299</v>
+      </c>
+      <c r="G200">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>2</v>
+      </c>
+      <c r="B201" t="s">
+        <v>93</v>
+      </c>
+      <c r="C201" t="s">
+        <v>26</v>
+      </c>
+      <c r="D201" s="9">
+        <v>2</v>
+      </c>
+      <c r="E201" s="7">
+        <v>45789</v>
+      </c>
+      <c r="F201" s="5">
+        <v>2.4583333333333299</v>
+      </c>
+      <c r="G201">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>2</v>
+      </c>
+      <c r="B202" t="s">
+        <v>93</v>
+      </c>
+      <c r="C202" t="s">
+        <v>26</v>
+      </c>
+      <c r="D202" s="9">
+        <v>3</v>
+      </c>
+      <c r="E202" s="7">
+        <v>45790</v>
+      </c>
+      <c r="F202" s="5">
+        <v>2.4583333333333299</v>
+      </c>
+      <c r="G202">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>2</v>
+      </c>
+      <c r="B203" t="s">
+        <v>93</v>
+      </c>
+      <c r="C203" t="s">
+        <v>26</v>
+      </c>
+      <c r="D203" s="9">
+        <v>4</v>
+      </c>
+      <c r="E203" s="7">
+        <v>45791</v>
+      </c>
+      <c r="F203" s="5">
+        <v>2.4583333333333299</v>
+      </c>
+      <c r="G203">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>2</v>
+      </c>
+      <c r="B204" t="s">
+        <v>93</v>
+      </c>
+      <c r="C204" t="s">
+        <v>26</v>
+      </c>
+      <c r="D204" s="9">
+        <v>5</v>
+      </c>
+      <c r="E204" s="7">
+        <v>45792</v>
+      </c>
+      <c r="F204" s="5">
+        <v>2.4583333333333299</v>
+      </c>
+      <c r="G204">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>2</v>
+      </c>
+      <c r="B205" t="s">
+        <v>93</v>
+      </c>
+      <c r="C205" t="s">
+        <v>36</v>
+      </c>
+      <c r="D205" s="9">
+        <v>1</v>
+      </c>
+      <c r="E205" s="7">
+        <v>45793</v>
+      </c>
+      <c r="F205" s="5">
+        <v>2.4583333333333299</v>
+      </c>
+      <c r="G205">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>2</v>
+      </c>
+      <c r="B206" t="s">
+        <v>93</v>
+      </c>
+      <c r="C206" t="s">
+        <v>20</v>
+      </c>
+      <c r="D206" s="9">
+        <v>1</v>
+      </c>
+      <c r="E206" s="7">
+        <v>45794</v>
+      </c>
+      <c r="F206" s="5">
+        <v>2.7083333333333299</v>
+      </c>
+      <c r="G206">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>2</v>
+      </c>
+      <c r="B207" t="s">
+        <v>93</v>
+      </c>
+      <c r="C207" t="s">
+        <v>20</v>
+      </c>
+      <c r="D207" s="9">
+        <v>2</v>
+      </c>
+      <c r="E207" s="7">
+        <v>45795</v>
+      </c>
+      <c r="F207" s="5">
+        <v>2.7499999999999898</v>
+      </c>
+      <c r="G207">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>2</v>
+      </c>
+      <c r="B208" t="s">
+        <v>93</v>
+      </c>
+      <c r="C208" t="s">
+        <v>20</v>
+      </c>
+      <c r="D208" s="9">
+        <v>3</v>
+      </c>
+      <c r="E208" s="7">
+        <v>45796</v>
+      </c>
+      <c r="F208" s="5">
+        <v>2.7916666666666599</v>
+      </c>
+      <c r="G208">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>2</v>
+      </c>
+      <c r="B209" t="s">
+        <v>93</v>
+      </c>
+      <c r="C209" t="s">
+        <v>20</v>
+      </c>
+      <c r="D209" s="9">
+        <v>4</v>
+      </c>
+      <c r="E209" s="7">
+        <v>45797</v>
+      </c>
+      <c r="F209" s="5">
+        <v>2.8333333333333299</v>
+      </c>
+      <c r="G209">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>2</v>
+      </c>
+      <c r="B210" t="s">
+        <v>93</v>
+      </c>
+      <c r="C210" t="s">
+        <v>20</v>
+      </c>
+      <c r="D210" s="9">
+        <v>5</v>
+      </c>
+      <c r="E210" s="7">
+        <v>45798</v>
+      </c>
+      <c r="F210" s="5">
+        <v>2.8749999999999898</v>
+      </c>
+      <c r="G210">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>2</v>
+      </c>
+      <c r="B211" t="s">
+        <v>93</v>
+      </c>
+      <c r="C211" t="s">
+        <v>23</v>
+      </c>
+      <c r="D211" s="9">
+        <v>1</v>
+      </c>
+      <c r="E211" s="7">
+        <v>45799</v>
+      </c>
+      <c r="F211" s="5">
+        <v>2.9166666666666599</v>
+      </c>
+      <c r="G211">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>2</v>
+      </c>
+      <c r="B212" t="s">
+        <v>93</v>
+      </c>
+      <c r="C212" t="s">
+        <v>23</v>
+      </c>
+      <c r="D212" s="9">
+        <v>2</v>
+      </c>
+      <c r="E212" s="7">
+        <v>45800</v>
+      </c>
+      <c r="F212" s="5">
+        <v>2.9583333333333299</v>
+      </c>
+      <c r="G212">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>2</v>
+      </c>
+      <c r="B213" t="s">
+        <v>93</v>
+      </c>
+      <c r="C213" t="s">
+        <v>23</v>
+      </c>
+      <c r="D213" s="9">
+        <v>3</v>
+      </c>
+      <c r="E213" s="7">
+        <v>45801</v>
+      </c>
+      <c r="F213" s="5">
+        <v>2.9999999999999898</v>
+      </c>
+      <c r="G213">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>2</v>
+      </c>
+      <c r="B214" t="s">
+        <v>93</v>
+      </c>
+      <c r="C214" t="s">
+        <v>23</v>
+      </c>
+      <c r="D214" s="9">
+        <v>4</v>
+      </c>
+      <c r="E214" s="7">
+        <v>45802</v>
+      </c>
+      <c r="F214" s="5">
+        <v>3.0416666666666599</v>
+      </c>
+      <c r="G214">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>2</v>
+      </c>
+      <c r="B215" t="s">
+        <v>93</v>
+      </c>
+      <c r="C215" t="s">
+        <v>23</v>
+      </c>
+      <c r="D215" s="9">
+        <v>5</v>
+      </c>
+      <c r="E215" s="7">
+        <v>45803</v>
+      </c>
+      <c r="F215" s="5">
+        <v>3.0833333333333299</v>
+      </c>
+      <c r="G215">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>2</v>
+      </c>
+      <c r="B216" t="s">
+        <v>93</v>
+      </c>
+      <c r="C216" t="s">
+        <v>23</v>
+      </c>
+      <c r="D216" s="9">
+        <v>6</v>
+      </c>
+      <c r="E216" s="7">
+        <v>45804</v>
+      </c>
+      <c r="F216" s="5">
+        <v>3.1249999999999898</v>
+      </c>
+      <c r="G216">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>2</v>
+      </c>
+      <c r="B217" t="s">
+        <v>93</v>
+      </c>
+      <c r="C217" t="s">
+        <v>23</v>
+      </c>
+      <c r="D217" s="9">
+        <v>7</v>
+      </c>
+      <c r="E217" s="7">
+        <v>45805</v>
+      </c>
+      <c r="F217" s="5">
+        <v>3.1666666666666599</v>
+      </c>
+      <c r="G217">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>2</v>
+      </c>
+      <c r="B218" t="s">
+        <v>93</v>
+      </c>
+      <c r="C218" t="s">
+        <v>23</v>
+      </c>
+      <c r="D218" s="9">
+        <v>8</v>
+      </c>
+      <c r="E218" s="7">
+        <v>45806</v>
+      </c>
+      <c r="F218" s="5">
+        <v>3.2083333333333299</v>
+      </c>
+      <c r="G218">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>2</v>
+      </c>
+      <c r="B219" t="s">
+        <v>93</v>
+      </c>
+      <c r="C219" t="s">
+        <v>23</v>
+      </c>
+      <c r="D219" s="9">
+        <v>9</v>
+      </c>
+      <c r="E219" s="7">
+        <v>45807</v>
+      </c>
+      <c r="F219" s="5">
+        <v>3.2499999999999898</v>
+      </c>
+      <c r="G219">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>2</v>
+      </c>
+      <c r="B220" t="s">
+        <v>93</v>
+      </c>
+      <c r="C220" t="s">
+        <v>14</v>
+      </c>
+      <c r="D220" s="9">
+        <v>1</v>
+      </c>
+      <c r="E220" s="7">
+        <v>45808</v>
+      </c>
+      <c r="F220" s="5">
+        <v>3.2916666666666599</v>
+      </c>
+      <c r="G220">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>2</v>
+      </c>
+      <c r="B221" t="s">
+        <v>93</v>
+      </c>
+      <c r="C221" t="s">
+        <v>14</v>
+      </c>
+      <c r="D221" s="9">
+        <v>2</v>
+      </c>
+      <c r="E221" s="7">
+        <v>45809</v>
+      </c>
+      <c r="F221" s="5">
+        <v>3.3333333333333299</v>
+      </c>
+      <c r="G221">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>2</v>
+      </c>
+      <c r="B222" t="s">
+        <v>93</v>
+      </c>
+      <c r="C222" t="s">
+        <v>14</v>
+      </c>
+      <c r="D222" s="9">
+        <v>3</v>
+      </c>
+      <c r="E222" s="7">
+        <v>45810</v>
+      </c>
+      <c r="F222" s="5">
+        <v>3.3749999999999898</v>
+      </c>
+      <c r="G222">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>2</v>
+      </c>
+      <c r="B223" t="s">
+        <v>93</v>
+      </c>
+      <c r="C223" t="s">
+        <v>14</v>
+      </c>
+      <c r="D223" s="9">
+        <v>4</v>
+      </c>
+      <c r="E223" s="7">
+        <v>45811</v>
+      </c>
+      <c r="F223" s="5">
+        <v>3.4166666666666599</v>
+      </c>
+      <c r="G223">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>2</v>
+      </c>
+      <c r="B224" t="s">
+        <v>93</v>
+      </c>
+      <c r="C224" t="s">
+        <v>33</v>
+      </c>
+      <c r="D224" s="9">
+        <v>1</v>
+      </c>
+      <c r="E224" s="7">
+        <v>45812</v>
+      </c>
+      <c r="F224" s="5">
+        <v>3.4583333333333299</v>
+      </c>
+      <c r="G224">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>2</v>
+      </c>
+      <c r="B225" t="s">
+        <v>93</v>
+      </c>
+      <c r="C225" t="s">
+        <v>33</v>
+      </c>
+      <c r="D225" s="9">
+        <v>2</v>
+      </c>
+      <c r="E225" s="7">
+        <v>45813</v>
+      </c>
+      <c r="F225" s="5">
+        <v>3.4999999999999898</v>
+      </c>
+      <c r="G225">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>2</v>
+      </c>
+      <c r="B226" t="s">
+        <v>93</v>
+      </c>
+      <c r="C226" t="s">
+        <v>33</v>
+      </c>
+      <c r="D226" s="9">
+        <v>3</v>
+      </c>
+      <c r="E226" s="7">
+        <v>45814</v>
+      </c>
+      <c r="F226" s="5">
+        <v>3.5416666666666599</v>
+      </c>
+      <c r="G226">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>2</v>
+      </c>
+      <c r="B227" t="s">
+        <v>93</v>
+      </c>
+      <c r="C227" t="s">
+        <v>37</v>
+      </c>
+      <c r="D227" s="9">
+        <v>1</v>
+      </c>
+      <c r="E227" s="7">
+        <v>45815</v>
+      </c>
+      <c r="F227" s="5">
+        <v>3.5833333333333299</v>
+      </c>
+      <c r="G227">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>2</v>
+      </c>
+      <c r="B228" t="s">
+        <v>93</v>
+      </c>
+      <c r="C228" t="s">
+        <v>37</v>
+      </c>
+      <c r="D228" s="9">
+        <v>2</v>
+      </c>
+      <c r="E228" s="7">
+        <v>45816</v>
+      </c>
+      <c r="F228" s="5">
+        <v>3.6249999999999898</v>
+      </c>
+      <c r="G228">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>2</v>
+      </c>
+      <c r="B229" t="s">
+        <v>93</v>
+      </c>
+      <c r="C229" t="s">
+        <v>30</v>
+      </c>
+      <c r="D229" s="9">
+        <v>1</v>
+      </c>
+      <c r="E229" s="7">
+        <v>45817</v>
+      </c>
+      <c r="F229" s="5">
+        <v>3.6666666666666599</v>
+      </c>
+      <c r="G229">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>2</v>
+      </c>
+      <c r="B230" t="s">
+        <v>93</v>
+      </c>
+      <c r="C230" t="s">
+        <v>30</v>
+      </c>
+      <c r="D230" s="9">
+        <v>2</v>
+      </c>
+      <c r="E230" s="7">
+        <v>45818</v>
+      </c>
+      <c r="F230" s="5">
+        <v>3.7083333333333299</v>
+      </c>
+      <c r="G230">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>2</v>
+      </c>
+      <c r="B231" t="s">
+        <v>93</v>
+      </c>
+      <c r="C231" t="s">
+        <v>30</v>
+      </c>
+      <c r="D231" s="9">
+        <v>3</v>
+      </c>
+      <c r="E231" s="7">
+        <v>45819</v>
+      </c>
+      <c r="F231" s="5">
+        <v>3.7499999999999898</v>
+      </c>
+      <c r="G231">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>2</v>
+      </c>
+      <c r="B232" t="s">
+        <v>93</v>
+      </c>
+      <c r="C232" t="s">
+        <v>30</v>
+      </c>
+      <c r="D232" s="9">
+        <v>4</v>
+      </c>
+      <c r="E232" s="7">
+        <v>45820</v>
+      </c>
+      <c r="F232" s="5">
+        <v>3.7916666666666599</v>
+      </c>
+      <c r="G232">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>2</v>
+      </c>
+      <c r="B233" t="s">
+        <v>93</v>
+      </c>
+      <c r="C233" t="s">
+        <v>30</v>
+      </c>
+      <c r="D233" s="9">
+        <v>5</v>
+      </c>
+      <c r="E233" s="7">
+        <v>45821</v>
+      </c>
+      <c r="F233" s="5">
+        <v>3.8333333333333299</v>
+      </c>
+      <c r="G233">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>2</v>
+      </c>
+      <c r="B234" t="s">
+        <v>93</v>
+      </c>
+      <c r="C234" t="s">
+        <v>17</v>
+      </c>
+      <c r="D234" s="9">
+        <v>1</v>
+      </c>
+      <c r="E234" s="7">
+        <v>45822</v>
+      </c>
+      <c r="F234" s="5">
+        <v>3.8749999999999898</v>
+      </c>
+      <c r="G234">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
+        <v>2</v>
+      </c>
+      <c r="B235" t="s">
+        <v>93</v>
+      </c>
+      <c r="C235" t="s">
+        <v>17</v>
+      </c>
+      <c r="D235" s="9">
+        <v>2</v>
+      </c>
+      <c r="E235" s="7">
+        <v>45823</v>
+      </c>
+      <c r="F235" s="5">
+        <v>3.8749999999999898</v>
+      </c>
+      <c r="G235">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
+        <v>2</v>
+      </c>
+      <c r="B236" t="s">
+        <v>93</v>
+      </c>
+      <c r="C236" t="s">
+        <v>17</v>
+      </c>
+      <c r="D236" s="9">
+        <v>3</v>
+      </c>
+      <c r="E236" s="7">
+        <v>45824</v>
+      </c>
+      <c r="F236" s="5">
+        <v>3.8749999999999898</v>
+      </c>
+      <c r="G236">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>2</v>
+      </c>
+      <c r="B237" t="s">
+        <v>94</v>
+      </c>
+      <c r="C237" t="s">
+        <v>34</v>
+      </c>
+      <c r="D237" s="9">
+        <v>1</v>
+      </c>
+      <c r="E237" s="10">
+        <v>45778</v>
+      </c>
+      <c r="F237" s="11">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G237">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
+        <v>2</v>
+      </c>
+      <c r="B238" t="s">
+        <v>94</v>
+      </c>
+      <c r="C238" t="s">
+        <v>34</v>
+      </c>
+      <c r="D238" s="9">
+        <v>2</v>
+      </c>
+      <c r="E238" s="10">
+        <v>45779</v>
+      </c>
+      <c r="F238" s="11">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G238">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>2</v>
+      </c>
+      <c r="B239" t="s">
+        <v>94</v>
+      </c>
+      <c r="C239" t="s">
+        <v>34</v>
+      </c>
+      <c r="D239" s="9">
+        <v>3</v>
+      </c>
+      <c r="E239" s="10">
+        <v>45780</v>
+      </c>
+      <c r="F239" s="11">
+        <v>0.125</v>
+      </c>
+      <c r="G239">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>2</v>
+      </c>
+      <c r="B240" t="s">
+        <v>94</v>
+      </c>
+      <c r="C240" t="s">
+        <v>34</v>
+      </c>
+      <c r="D240" s="9">
+        <v>4</v>
+      </c>
+      <c r="E240" s="10">
+        <v>45781</v>
+      </c>
+      <c r="F240" s="11">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G240">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>2</v>
+      </c>
+      <c r="B241" t="s">
+        <v>94</v>
+      </c>
+      <c r="C241" t="s">
+        <v>34</v>
+      </c>
+      <c r="D241" s="9">
+        <v>5</v>
+      </c>
+      <c r="E241" s="10">
+        <v>45782</v>
+      </c>
+      <c r="F241" s="11">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="G241">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
+        <v>2</v>
+      </c>
+      <c r="B242" t="s">
+        <v>94</v>
+      </c>
+      <c r="C242" t="s">
+        <v>34</v>
+      </c>
+      <c r="D242" s="9">
+        <v>6</v>
+      </c>
+      <c r="E242" s="10">
+        <v>45783</v>
+      </c>
+      <c r="F242" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="G242">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>2</v>
+      </c>
+      <c r="B243" t="s">
+        <v>94</v>
+      </c>
+      <c r="C243" t="s">
+        <v>34</v>
+      </c>
+      <c r="D243" s="9">
+        <v>7</v>
+      </c>
+      <c r="E243" s="10">
+        <v>45784</v>
+      </c>
+      <c r="F243" s="11">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="G243">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
+        <v>2</v>
+      </c>
+      <c r="B244" t="s">
+        <v>94</v>
+      </c>
+      <c r="C244" t="s">
+        <v>34</v>
+      </c>
+      <c r="D244" s="9">
+        <v>8</v>
+      </c>
+      <c r="E244" s="10">
+        <v>45785</v>
+      </c>
+      <c r="F244" s="11">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G244">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>2</v>
+      </c>
+      <c r="B245" t="s">
+        <v>94</v>
+      </c>
+      <c r="C245" t="s">
+        <v>34</v>
+      </c>
+      <c r="D245" s="9">
+        <v>9</v>
+      </c>
+      <c r="E245" s="10">
+        <v>45786</v>
+      </c>
+      <c r="F245" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="G245">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>2</v>
+      </c>
+      <c r="B246" t="s">
+        <v>94</v>
+      </c>
+      <c r="C246" t="s">
+        <v>26</v>
+      </c>
+      <c r="D246" s="9">
+        <v>1</v>
+      </c>
+      <c r="E246" s="10">
+        <v>45787</v>
+      </c>
+      <c r="F246" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G246">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>2</v>
+      </c>
+      <c r="B247" t="s">
+        <v>94</v>
+      </c>
+      <c r="C247" t="s">
+        <v>26</v>
+      </c>
+      <c r="D247" s="9">
+        <v>2</v>
+      </c>
+      <c r="E247" s="10">
+        <v>45788</v>
+      </c>
+      <c r="F247" s="11">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G247">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
+        <v>2</v>
+      </c>
+      <c r="B248" t="s">
+        <v>94</v>
+      </c>
+      <c r="C248" t="s">
+        <v>26</v>
+      </c>
+      <c r="D248" s="9">
+        <v>3</v>
+      </c>
+      <c r="E248" s="10">
+        <v>45789</v>
+      </c>
+      <c r="F248" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="G248">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>2</v>
+      </c>
+      <c r="B249" t="s">
+        <v>94</v>
+      </c>
+      <c r="C249" t="s">
+        <v>26</v>
+      </c>
+      <c r="D249" s="9">
+        <v>4</v>
+      </c>
+      <c r="E249" s="10">
+        <v>45790</v>
+      </c>
+      <c r="F249" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G249">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>2</v>
+      </c>
+      <c r="B250" t="s">
+        <v>94</v>
+      </c>
+      <c r="C250" t="s">
+        <v>26</v>
+      </c>
+      <c r="D250" s="9">
+        <v>5</v>
+      </c>
+      <c r="E250" s="10">
+        <v>45791</v>
+      </c>
+      <c r="F250" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="G250">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>2</v>
+      </c>
+      <c r="B251" t="s">
+        <v>94</v>
+      </c>
+      <c r="C251" t="s">
+        <v>36</v>
+      </c>
+      <c r="D251" s="9">
+        <v>1</v>
+      </c>
+      <c r="E251" s="10">
+        <v>45792</v>
+      </c>
+      <c r="F251" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="G251">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>2</v>
+      </c>
+      <c r="B252" t="s">
+        <v>94</v>
+      </c>
+      <c r="C252" t="s">
+        <v>20</v>
+      </c>
+      <c r="D252" s="9">
+        <v>1</v>
+      </c>
+      <c r="E252" s="10">
+        <v>45793</v>
+      </c>
+      <c r="F252" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G252">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
+        <v>2</v>
+      </c>
+      <c r="B253" t="s">
+        <v>94</v>
+      </c>
+      <c r="C253" t="s">
+        <v>20</v>
+      </c>
+      <c r="D253" s="9">
+        <v>2</v>
+      </c>
+      <c r="E253" s="10">
+        <v>45794</v>
+      </c>
+      <c r="F253" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="G253">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
+        <v>2</v>
+      </c>
+      <c r="B254" t="s">
+        <v>94</v>
+      </c>
+      <c r="C254" t="s">
+        <v>20</v>
+      </c>
+      <c r="D254" s="9">
+        <v>3</v>
+      </c>
+      <c r="E254" s="10">
+        <v>45795</v>
+      </c>
+      <c r="F254" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="G254">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
+        <v>2</v>
+      </c>
+      <c r="B255" t="s">
+        <v>94</v>
+      </c>
+      <c r="C255" t="s">
+        <v>20</v>
+      </c>
+      <c r="D255" s="9">
+        <v>4</v>
+      </c>
+      <c r="E255" s="10">
+        <v>45796</v>
+      </c>
+      <c r="F255" s="11">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="G255">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
+        <v>2</v>
+      </c>
+      <c r="B256" t="s">
+        <v>94</v>
+      </c>
+      <c r="C256" t="s">
+        <v>20</v>
+      </c>
+      <c r="D256" s="9">
+        <v>5</v>
+      </c>
+      <c r="E256" s="10">
+        <v>45797</v>
+      </c>
+      <c r="F256" s="11">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G256">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
+        <v>2</v>
+      </c>
+      <c r="B257" t="s">
+        <v>94</v>
+      </c>
+      <c r="C257" t="s">
+        <v>20</v>
+      </c>
+      <c r="D257" s="9">
+        <v>6</v>
+      </c>
+      <c r="E257" s="10">
+        <v>45798</v>
+      </c>
+      <c r="F257" s="11">
+        <v>0.875</v>
+      </c>
+      <c r="G257">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
+        <v>2</v>
+      </c>
+      <c r="B258" t="s">
+        <v>94</v>
+      </c>
+      <c r="C258" t="s">
+        <v>23</v>
+      </c>
+      <c r="D258" s="9">
+        <v>1</v>
+      </c>
+      <c r="E258" s="10">
+        <v>45799</v>
+      </c>
+      <c r="F258" s="11">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="G258">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
+        <v>2</v>
+      </c>
+      <c r="B259" t="s">
+        <v>94</v>
+      </c>
+      <c r="C259" t="s">
+        <v>23</v>
+      </c>
+      <c r="D259" s="9">
+        <v>2</v>
+      </c>
+      <c r="E259" s="10">
+        <v>45800</v>
+      </c>
+      <c r="F259" s="11">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="G259">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
+        <v>2</v>
+      </c>
+      <c r="B260" t="s">
+        <v>94</v>
+      </c>
+      <c r="C260" t="s">
+        <v>23</v>
+      </c>
+      <c r="D260" s="9">
+        <v>3</v>
+      </c>
+      <c r="E260" s="10">
+        <v>45801</v>
+      </c>
+      <c r="F260" s="11">
+        <v>0</v>
+      </c>
+      <c r="G260">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
+        <v>2</v>
+      </c>
+      <c r="B261" t="s">
+        <v>94</v>
+      </c>
+      <c r="C261" t="s">
+        <v>23</v>
+      </c>
+      <c r="D261" s="9">
+        <v>4</v>
+      </c>
+      <c r="E261" s="10">
+        <v>45802</v>
+      </c>
+      <c r="F261" s="11">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G261">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A262" t="s">
+        <v>2</v>
+      </c>
+      <c r="B262" t="s">
+        <v>94</v>
+      </c>
+      <c r="C262" t="s">
+        <v>23</v>
+      </c>
+      <c r="D262" s="9">
+        <v>5</v>
+      </c>
+      <c r="E262" s="10">
+        <v>45803</v>
+      </c>
+      <c r="F262" s="11">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G262">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A263" t="s">
+        <v>2</v>
+      </c>
+      <c r="B263" t="s">
+        <v>94</v>
+      </c>
+      <c r="C263" t="s">
+        <v>23</v>
+      </c>
+      <c r="D263" s="9">
+        <v>6</v>
+      </c>
+      <c r="E263" s="10">
+        <v>45804</v>
+      </c>
+      <c r="F263" s="11">
+        <v>0.125</v>
+      </c>
+      <c r="G263">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
+        <v>2</v>
+      </c>
+      <c r="B264" t="s">
+        <v>94</v>
+      </c>
+      <c r="C264" t="s">
+        <v>23</v>
+      </c>
+      <c r="D264" s="9">
+        <v>7</v>
+      </c>
+      <c r="E264" s="10">
+        <v>45805</v>
+      </c>
+      <c r="F264" s="11">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G264">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A265" t="s">
+        <v>2</v>
+      </c>
+      <c r="B265" t="s">
+        <v>94</v>
+      </c>
+      <c r="C265" t="s">
+        <v>23</v>
+      </c>
+      <c r="D265" s="9">
+        <v>8</v>
+      </c>
+      <c r="E265" s="10">
+        <v>45806</v>
+      </c>
+      <c r="F265" s="11">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="G265">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A266" t="s">
+        <v>2</v>
+      </c>
+      <c r="B266" t="s">
+        <v>94</v>
+      </c>
+      <c r="C266" t="s">
+        <v>23</v>
+      </c>
+      <c r="D266" s="9">
+        <v>9</v>
+      </c>
+      <c r="E266" s="10">
+        <v>45807</v>
+      </c>
+      <c r="F266" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="G266">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A267" t="s">
+        <v>2</v>
+      </c>
+      <c r="B267" t="s">
+        <v>94</v>
+      </c>
+      <c r="C267" t="s">
+        <v>14</v>
+      </c>
+      <c r="D267" s="9">
+        <v>10</v>
+      </c>
+      <c r="E267" s="10">
+        <v>45808</v>
+      </c>
+      <c r="F267" s="11">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="G267">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A268" t="s">
+        <v>2</v>
+      </c>
+      <c r="B268" t="s">
+        <v>94</v>
+      </c>
+      <c r="C268" t="s">
+        <v>14</v>
+      </c>
+      <c r="D268" s="9">
+        <v>1</v>
+      </c>
+      <c r="E268" s="10">
+        <v>45809</v>
+      </c>
+      <c r="F268" s="11">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G268">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A269" t="s">
+        <v>2</v>
+      </c>
+      <c r="B269" t="s">
+        <v>94</v>
+      </c>
+      <c r="C269" t="s">
+        <v>14</v>
+      </c>
+      <c r="D269" s="9">
+        <v>2</v>
+      </c>
+      <c r="E269" s="10">
+        <v>45810</v>
+      </c>
+      <c r="F269" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="G269">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A270" t="s">
+        <v>2</v>
+      </c>
+      <c r="B270" t="s">
+        <v>94</v>
+      </c>
+      <c r="C270" t="s">
+        <v>14</v>
+      </c>
+      <c r="D270" s="9">
+        <v>3</v>
+      </c>
+      <c r="E270" s="10">
+        <v>45811</v>
+      </c>
+      <c r="F270" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G270">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A271" t="s">
+        <v>2</v>
+      </c>
+      <c r="B271" t="s">
+        <v>94</v>
+      </c>
+      <c r="C271" t="s">
+        <v>33</v>
+      </c>
+      <c r="D271" s="9">
+        <v>1</v>
+      </c>
+      <c r="E271" s="10">
+        <v>45812</v>
+      </c>
+      <c r="F271" s="11">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G271">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A272" t="s">
+        <v>2</v>
+      </c>
+      <c r="B272" t="s">
+        <v>94</v>
+      </c>
+      <c r="C272" t="s">
+        <v>33</v>
+      </c>
+      <c r="D272" s="9">
+        <v>2</v>
+      </c>
+      <c r="E272" s="10">
+        <v>45813</v>
+      </c>
+      <c r="F272" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="G272">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A273" t="s">
+        <v>2</v>
+      </c>
+      <c r="B273" t="s">
+        <v>94</v>
+      </c>
+      <c r="C273" t="s">
+        <v>33</v>
+      </c>
+      <c r="D273" s="9">
+        <v>3</v>
+      </c>
+      <c r="E273" s="10">
+        <v>45814</v>
+      </c>
+      <c r="F273" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G273">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A274" t="s">
+        <v>2</v>
+      </c>
+      <c r="B274" t="s">
+        <v>94</v>
+      </c>
+      <c r="C274" t="s">
+        <v>37</v>
+      </c>
+      <c r="D274" s="9">
+        <v>1</v>
+      </c>
+      <c r="E274" s="10">
+        <v>45815</v>
+      </c>
+      <c r="F274" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="G274">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A275" t="s">
+        <v>2</v>
+      </c>
+      <c r="B275" t="s">
+        <v>94</v>
+      </c>
+      <c r="C275" t="s">
+        <v>37</v>
+      </c>
+      <c r="D275" s="9">
+        <v>2</v>
+      </c>
+      <c r="E275" s="10">
+        <v>45816</v>
+      </c>
+      <c r="F275" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="G275">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A276" t="s">
+        <v>2</v>
+      </c>
+      <c r="B276" t="s">
+        <v>94</v>
+      </c>
+      <c r="C276" t="s">
+        <v>30</v>
+      </c>
+      <c r="D276" s="9">
+        <v>1</v>
+      </c>
+      <c r="E276" s="10">
+        <v>45817</v>
+      </c>
+      <c r="F276" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G276">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A277" t="s">
+        <v>2</v>
+      </c>
+      <c r="B277" t="s">
+        <v>94</v>
+      </c>
+      <c r="C277" t="s">
+        <v>30</v>
+      </c>
+      <c r="D277" s="9">
+        <v>2</v>
+      </c>
+      <c r="E277" s="10">
+        <v>45818</v>
+      </c>
+      <c r="F277" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="G277">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A278" t="s">
+        <v>2</v>
+      </c>
+      <c r="B278" t="s">
+        <v>94</v>
+      </c>
+      <c r="C278" t="s">
+        <v>30</v>
+      </c>
+      <c r="D278" s="9">
+        <v>3</v>
+      </c>
+      <c r="E278" s="10">
+        <v>45819</v>
+      </c>
+      <c r="F278" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="G278">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A279" t="s">
+        <v>2</v>
+      </c>
+      <c r="B279" t="s">
+        <v>94</v>
+      </c>
+      <c r="C279" t="s">
+        <v>30</v>
+      </c>
+      <c r="D279" s="9">
+        <v>4</v>
+      </c>
+      <c r="E279" s="10">
+        <v>45820</v>
+      </c>
+      <c r="F279" s="11">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="G279">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A280" t="s">
+        <v>2</v>
+      </c>
+      <c r="B280" t="s">
+        <v>94</v>
+      </c>
+      <c r="C280" t="s">
+        <v>30</v>
+      </c>
+      <c r="D280" s="9">
+        <v>5</v>
+      </c>
+      <c r="E280" s="10">
+        <v>45821</v>
+      </c>
+      <c r="F280" s="11">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G280">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A281" t="s">
+        <v>2</v>
+      </c>
+      <c r="B281" t="s">
+        <v>94</v>
+      </c>
+      <c r="C281" t="s">
+        <v>17</v>
+      </c>
+      <c r="D281" s="9">
+        <v>1</v>
+      </c>
+      <c r="E281" s="10">
+        <v>45822</v>
+      </c>
+      <c r="F281" s="11">
+        <v>0.875</v>
+      </c>
+      <c r="G281">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A282" t="s">
+        <v>2</v>
+      </c>
+      <c r="B282" t="s">
+        <v>94</v>
+      </c>
+      <c r="C282" t="s">
+        <v>17</v>
+      </c>
+      <c r="D282" s="9">
+        <v>2</v>
+      </c>
+      <c r="E282" s="10">
+        <v>45823</v>
+      </c>
+      <c r="F282" s="11">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="G282">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A283" t="s">
+        <v>2</v>
+      </c>
+      <c r="B283" t="s">
+        <v>94</v>
+      </c>
+      <c r="C283" t="s">
+        <v>17</v>
+      </c>
+      <c r="D283" s="9">
+        <v>3</v>
+      </c>
+      <c r="E283" s="10">
+        <v>45824</v>
+      </c>
+      <c r="F283" s="11">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="G283">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
